--- a/data/trans_camb/P1426-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1426-Dificultad-trans_camb.xlsx
@@ -612,13 +612,13 @@
         <v>0.2987446351781314</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>4.155091815102883</v>
+        <v>4.155091815102882</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.05926861210585471</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.111682297910166</v>
+        <v>4.111682297910167</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1824033405935604</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7793104521898628</v>
+        <v>-0.7504139579621965</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.497546929009277</v>
+        <v>2.298368077900566</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.18419951068968</v>
+        <v>-1.05278560454855</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.339774802483682</v>
+        <v>2.347079082257869</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.5643109036508522</v>
+        <v>-0.6506321490563134</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.998709890751368</v>
+        <v>2.937401829999377</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.313474463343121</v>
+        <v>1.263122405150009</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.226783112288822</v>
+        <v>6.398088059894244</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.226881043612126</v>
+        <v>1.47193416772739</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.868297672560882</v>
+        <v>5.895820596492444</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.04063608726836</v>
+        <v>0.9871855919005459</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.579533205160183</v>
+        <v>5.674112705598161</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
         <v>0.02729542521265983</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>1.893584355584021</v>
+        <v>1.893584355584022</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.107176523271907</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4381201177029821</v>
+        <v>-0.4307508220565295</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>1.189055343559253</v>
+        <v>1.132936037257243</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4221907344585923</v>
+        <v>-0.3995873780033402</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.8143085961526894</v>
+        <v>0.80573250108795</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.278383701788784</v>
+        <v>-0.3161550807308575</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.281311269743813</v>
+        <v>1.382739601962127</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.061204203680769</v>
+        <v>1.964224165636622</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>7.886796819020332</v>
+        <v>8.648212109337098</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8155419219315476</v>
+        <v>1.016796299647212</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.093102740537741</v>
+        <v>3.922938873821519</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8031177868870105</v>
+        <v>0.7632934623335239</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.157575678081771</v>
+        <v>4.166876718373191</v>
       </c>
     </row>
     <row r="10">
@@ -772,13 +772,13 @@
         <v>-0.2049888780872446</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.947137165207394</v>
+        <v>2.947137165207396</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.7481986874083788</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.902563397811277</v>
+        <v>2.902563397811278</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2966101693368691</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.57402505803594</v>
+        <v>-1.58261707413446</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.407658089600284</v>
+        <v>1.329261045402423</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.5014121339908915</v>
+        <v>-0.4399491096847348</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.612655723886314</v>
+        <v>1.658999626501793</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.5740596788355437</v>
+        <v>-0.6783621841555874</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.938208615490089</v>
+        <v>1.902257888087952</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.096457647679662</v>
+        <v>1.100038444163317</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.502930198216326</v>
+        <v>4.686701545904865</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.080209712773206</v>
+        <v>2.159916017481771</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.052887277805166</v>
+        <v>4.143601540187371</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.211000621267118</v>
+        <v>1.208302117494905</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.95970061983302</v>
+        <v>3.995319595514421</v>
       </c>
     </row>
     <row r="13">
@@ -850,13 +850,13 @@
         <v>-0.09723631077787159</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>1.397972163051481</v>
+        <v>1.397972163051482</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.4137813420717838</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>1.605224118148242</v>
+        <v>1.605224118148243</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1521216643767798</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5494984214918224</v>
+        <v>-0.5313767589713899</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4126509309809052</v>
+        <v>0.3748687396263249</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.215434246374884</v>
+        <v>-0.2184520300213311</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.6219094372465032</v>
+        <v>0.6112356841209848</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2495650968194083</v>
+        <v>-0.2777246853839363</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7093131039346243</v>
+        <v>0.7360098789118539</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9150203748735672</v>
+        <v>0.9345432674016518</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.39331777715993</v>
+        <v>3.499138474576571</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.71405497087903</v>
+        <v>1.692702231472232</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.331624105205574</v>
+        <v>2.998708065576684</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7862431153393536</v>
+        <v>0.7747742284782441</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.629796937696872</v>
+        <v>2.713246146936281</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.824235957830599</v>
+        <v>-1.772989677029114</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.52992720148684</v>
+        <v>1.465443478190829</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4789704411858468</v>
+        <v>-0.4243568914098061</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.171149412517477</v>
+        <v>2.094983142396203</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.8096934859161858</v>
+        <v>-0.9102918412953962</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.224404781792932</v>
+        <v>2.198823244269525</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3042028501557921</v>
+        <v>0.2241231796646551</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.363763983170324</v>
+        <v>4.364077274266453</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.158394387115418</v>
+        <v>2.294000366934664</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.449424145997746</v>
+        <v>4.579973551865447</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9243176968280129</v>
+        <v>0.8419591075926051</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.993398794334947</v>
+        <v>4.043879839906577</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1022,7 @@
         <v>0.01056700975132262</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2.299040783812447</v>
+        <v>2.299040783812448</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.764201226533481</v>
+        <v>-0.7988759724920059</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.5779861692203855</v>
+        <v>0.6061487408405698</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4154857511453109</v>
+        <v>-0.3735536266859368</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>1.049721646263045</v>
+        <v>0.9645845953264638</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4705265933066464</v>
+        <v>-0.5231033531384801</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.134412802253604</v>
+        <v>1.174953708398482</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3694030463400911</v>
+        <v>0.2566267786188275</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.249355314982481</v>
+        <v>4.321790643653805</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.144180683036528</v>
+        <v>4.339311756501766</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>8.143278497887284</v>
+        <v>8.296739981640419</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9628864151047019</v>
+        <v>0.8396174597658752</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.347697629601402</v>
+        <v>4.363522533352154</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.023646083803171</v>
+        <v>-0.9435486322354109</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.647772360022731</v>
+        <v>1.52812031538647</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.754088320203937</v>
+        <v>-3.720676829461</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.8339781293736273</v>
+        <v>-0.8190351242184326</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.809346723833018</v>
+        <v>-1.837808400533338</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8719741770613557</v>
+        <v>0.987742792663023</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.097415364379671</v>
+        <v>2.09137975127849</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.376391821435373</v>
+        <v>4.528555516956722</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.3387751173864412</v>
+        <v>-0.1682099741004986</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.036787028559866</v>
+        <v>2.875314620193524</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5518326218591854</v>
+        <v>0.4475857859710153</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.313404514299021</v>
+        <v>3.313724984756168</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7409888567698706</v>
+        <v>-0.7268739672676358</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.6097731612503698</v>
+        <v>0.6048897529504768</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2574622802379286</v>
+        <v>-0.1972092048491364</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7671068538805859</v>
+        <v>-0.7820037027270049</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2849235744121472</v>
+        <v>0.3621218427437521</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.849112937413425</v>
+        <v>6.431268074581524</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>10.23625743627664</v>
+        <v>10.57272380851086</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.05645458134733466</v>
+        <v>0.199577318359345</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.490962036133697</v>
+        <v>2.246026143754846</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6453267478942968</v>
+        <v>0.4709376525251956</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.108304618847637</v>
+        <v>3.091906116940159</v>
       </c>
     </row>
     <row r="28">
@@ -1258,7 +1258,7 @@
         <v>0.1892247154108642</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2.824492755479955</v>
+        <v>2.824492755479956</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.05257734403983742</v>
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.7544575048188701</v>
+        <v>-0.6840311898393749</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.343371540677927</v>
+        <v>2.418681390385262</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.5035219588799447</v>
+        <v>-0.4957273577251954</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.118516656229039</v>
+        <v>2.113064903151602</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.4597010598922237</v>
+        <v>-0.4008708817164775</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.507157958851571</v>
+        <v>2.435522228019102</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4671863194876169</v>
+        <v>0.4911281775434518</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.845233315623176</v>
+        <v>3.914652796371994</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8486122668275013</v>
+        <v>0.8172717246849761</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.610823798788995</v>
+        <v>3.494708001902531</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.446157361716456</v>
+        <v>0.5150007809994744</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.567413282258719</v>
+        <v>3.509184458053919</v>
       </c>
     </row>
     <row r="31">
@@ -1336,7 +1336,7 @@
         <v>0.1034280804628737</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1.543835663043688</v>
+        <v>1.543835663043689</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03108421708085929</v>
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3954272197440395</v>
+        <v>-0.3620959358571838</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>1.144745635274737</v>
+        <v>1.210140720407149</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2347705275139394</v>
+        <v>-0.2260311601067115</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.9455514953585873</v>
+        <v>0.9292465440047877</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2396677419423662</v>
+        <v>-0.2131868478276435</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.285770303975535</v>
+        <v>1.230163381657867</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3965907001213967</v>
+        <v>0.4125841892355557</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.006333999774187</v>
+        <v>3.17657439035171</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5623065355355241</v>
+        <v>0.5688321069303641</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.548553222708071</v>
+        <v>2.39266502475364</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3039218247779416</v>
+        <v>0.3423932765498816</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.441310905868815</v>
+        <v>2.407598069925755</v>
       </c>
     </row>
     <row r="34">
